--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -14,12 +14,1113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="369">
   <si>
     <t>File</t>
   </si>
   <si>
+    <t>age of diagnosis by subtype</t>
+  </si>
+  <si>
+    <t>age of diagnosis by subtype •	anti-nmdar 30</t>
+  </si>
+  <si>
+    <t>age of diagnosis by subtype •	iqr 34</t>
+  </si>
+  <si>
+    <t>age of diagnosis by subtype •	mean 31</t>
+  </si>
+  <si>
+    <t>age of diagnosis by subtype •	median 33</t>
+  </si>
+  <si>
+    <t>age of diagnosis by subtype •	sd 32</t>
+  </si>
+  <si>
+    <t>age of patients by subtype</t>
+  </si>
+  <si>
+    <t>age of patients by subtype subtype 24</t>
+  </si>
+  <si>
+    <t>age of patients by subtype subtype 25</t>
+  </si>
+  <si>
+    <t>age of patients by subtype subtype 26</t>
+  </si>
+  <si>
+    <t>age of patients by subtype subtype 28</t>
+  </si>
+  <si>
+    <t>age of patients by subtype subtype 29</t>
+  </si>
+  <si>
+    <t>age of patients by subtype subtype 31</t>
+  </si>
+  <si>
+    <t>age of patients by subtype subtype 36</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 26</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 27</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 28</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 29</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 30</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 31</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 35</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	iqr 40</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	mean 25</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	mean 26</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	mean 27</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	mean 29</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	mean 32</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	mean 37</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 25</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 26</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 27</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 28</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 29</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 30</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 34</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	median 39</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	sd 26</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	sd 27</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	sd 28</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	sd 33</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	sd 38</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	subtype 24</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	subtype 26</t>
+  </si>
+  <si>
+    <t>age of patients by subtype •	subtype 31</t>
+  </si>
+  <si>
+    <t>article title</t>
+  </si>
+  <si>
+    <t>classification or diagnosis</t>
+  </si>
+  <si>
+    <t>cohort age group</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>data source</t>
+  </si>
+  <si>
+    <t>diagnosis criteria details</t>
+  </si>
+  <si>
+    <t>disease analysis</t>
+  </si>
+  <si>
+    <t>disease phase</t>
+  </si>
+  <si>
+    <t>female percentage in cohort</t>
+  </si>
+  <si>
+    <t>follow-up period</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-ampar 26</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-caspr2 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-caspr2 23</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-caspr2 24</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-dppx 25</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-gababr 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-gababr 23</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-gababr 24</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-gad65 25</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-lgi1 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-lgi1/caspr2 23</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-nmdar 21</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-nmdar ae 24</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-nmdar encephalitis (nmdare) 21</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	anti-nmdar encephalitis (nmdare) 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	antibody-negative ae 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	antibody-positive ae 21</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	autoimmune encephalitis (aie) 21</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	definite ae 21</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	infectious encephalitis 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	limbic encephalitis 25</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	mogad 23</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	multiple anti-neuronal antibodies 26</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	other antibodies 23</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	possible ae 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	possible ae 23</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	probable ae 22</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	probable antibody-negative ae 21</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	subtypes and patient numbers 20</t>
+  </si>
+  <si>
+    <t>patient number of autoimmune encephalitis •	unknown encephalitis 23</t>
+  </si>
+  <si>
+    <t>population characteristics</t>
+  </si>
+  <si>
+    <t>population cohort</t>
+  </si>
+  <si>
+    <t>population ethnicity</t>
+  </si>
+  <si>
+    <t>prospective or retrospective</t>
+  </si>
+  <si>
+    <t>publication year</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>sites or centers involved</t>
+  </si>
+  <si>
+    <t>study coverage area</t>
+  </si>
+  <si>
+    <t>study design</t>
+  </si>
+  <si>
+    <t>study duration</t>
+  </si>
+  <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>8.8 years</t>
+  </si>
+  <si>
+    <t>±5.02 years</t>
+  </si>
+  <si>
+    <t>•	Anti-NMDAR</t>
+  </si>
+  <si>
+    <t>•	Definite AE</t>
+  </si>
+  <si>
+    <t>•	Antibody-positive AE</t>
+  </si>
+  <si>
+    <t>•	Autoimmune Encephalitis</t>
+  </si>
+  <si>
+    <t>•	Probable antibody-negative AE</t>
+  </si>
+  <si>
+    <t>•	Antibody-negative AE</t>
+  </si>
+  <si>
+    <t>•	Anti-GABABR</t>
+  </si>
+  <si>
+    <t>•	Anti-LGI1/CASPR2</t>
+  </si>
+  <si>
+    <t>5.0 - 11.1</t>
+  </si>
+  <si>
+    <t>6.0 - 11.0</t>
+  </si>
+  <si>
+    <t>19–37</t>
+  </si>
+  <si>
+    <t>18.75 – 32.25 years</t>
+  </si>
+  <si>
+    <t>41–62</t>
+  </si>
+  <si>
+    <t>32–58</t>
+  </si>
+  <si>
+    <t>11.1 years</t>
+  </si>
+  <si>
+    <t>36.2 years</t>
+  </si>
+  <si>
+    <t>4.3 years</t>
+  </si>
+  <si>
+    <t>28 years</t>
+  </si>
+  <si>
+    <t>47 years</t>
+  </si>
+  <si>
+    <t>7 years 4 months</t>
+  </si>
+  <si>
+    <t>8.1 years</t>
+  </si>
+  <si>
+    <t>25 years</t>
+  </si>
+  <si>
+    <t>44 years</t>
+  </si>
+  <si>
+    <t>27.5 years</t>
+  </si>
+  <si>
+    <t>55 years</t>
+  </si>
+  <si>
+    <t>3.4 years</t>
+  </si>
+  <si>
+    <t>±19.8 years</t>
+  </si>
+  <si>
+    <t>Anti-NMDAR encephalitis</t>
+  </si>
+  <si>
+    <t>Anti-NMDAR</t>
+  </si>
+  <si>
+    <t>Anti-Caspr2</t>
+  </si>
+  <si>
+    <t>Evaluating the incidence and predictors of anti-NMDAR encephalitis in a contemporary cohort of patients diagnosed with dermoid tumors: A national inpatient sample analysis</t>
+  </si>
+  <si>
+    <t>The Antibody Assay in Suspected Autoimmune Encephalitis From Positive Rate to Test Strategies</t>
+  </si>
+  <si>
+    <t>Direct economic burden of patients with autoimmune encephalitis in western China</t>
+  </si>
+  <si>
+    <t>Heterogeneous treatment for anti-NMDAR encephalitis in children leads to different outcomes 6–12 months after diagnosis</t>
+  </si>
+  <si>
+    <t>Development and Validation of a Risk Score for Predicting ICU Admission in Adults with New-Onset Encephalitis</t>
+  </si>
+  <si>
+    <t>Autoimmune encephalitis in a resource-limited public health setting: a case series analysis</t>
+  </si>
+  <si>
+    <t>Neuropsychological outcomes in children and adolescents following anti-NMDA receptor encephalitis</t>
+  </si>
+  <si>
+    <t>Clinical characteristics and prognosis analysis of acute symptomatic seizures secondary to autoimmune encephalitis</t>
+  </si>
+  <si>
+    <t>Higher incidence of acute symptomatic seizures in probable antibody-negative pediatric autoimmune encephalitis than in major antibody-positive autoimmune encephalitis</t>
+  </si>
+  <si>
+    <t>Pediatric anti-N-methyl-D-aspartate receptor (NMDAR) encephalitis: Exploring psychosis, related risk factors, and hospital outcomes in a nationwide inpatient sample: A cross-sectional study</t>
+  </si>
+  <si>
+    <t>Acute pediatric encephalitis: etiology, course, and outcome of a 12-year single-center immunocompetent cohort</t>
+  </si>
+  <si>
+    <t>Phenotyping the late- and younger-onset neuronal surface antibody-mediated autoimmune encephalitis: a multicenter study</t>
+  </si>
+  <si>
+    <t>Autoimmune encephalitis: A costly condition</t>
+  </si>
+  <si>
+    <t>Long-term effects of anti-N-methyl-D-aspartate receptor encephalitis on quality of life</t>
+  </si>
+  <si>
+    <t>ICD-10 codes: D27 (benign dermoid tumor of ovary), G04 (encephalitis and meningitis), along with psychiatric and seizure-related codes</t>
+  </si>
+  <si>
+    <t>Antibody-positive AE based on laboratory assay</t>
+  </si>
+  <si>
+    <t>Antibody-positive AE based on clinical symptoms and laboratory tests</t>
+  </si>
+  <si>
+    <t>Diagnosis confirmed by presence of anti-NMDAR antibodies in CSF and/or serum</t>
+  </si>
+  <si>
+    <t>ICD-9 coded encephalitis with IEC criteria</t>
+  </si>
+  <si>
+    <t>Graus criteria (2016)</t>
+  </si>
+  <si>
+    <t>Diagnosis confirmed by presence of NMDAR antibodies in serum and/or CSF</t>
+  </si>
+  <si>
+    <t>Graus criteria (2016) and Chinese expert consensus (2022)</t>
+  </si>
+  <si>
+    <t>Autoimmune Encephalitis International Working Group criteria</t>
+  </si>
+  <si>
+    <t>ICD-10 diagnostic codes G04.0x to G04.9x</t>
+  </si>
+  <si>
+    <t>Pediatric Autoimmune Encephalitis Criteria</t>
+  </si>
+  <si>
+    <t>2016 Lancet Neurology criteria for autoimmune encephalitis</t>
+  </si>
+  <si>
+    <t>2016 Graus Criteria for autoimmune encephalitis</t>
+  </si>
+  <si>
+    <t>Diagnosis confirmed via cell-based assays (NR1/NR2–transfected HEK293 cells)</t>
+  </si>
+  <si>
+    <t>Mixed (Pediatric, Adult)</t>
+  </si>
+  <si>
+    <t>Mixed (pediatric, adult)</t>
+  </si>
+  <si>
+    <t>Pediatric (ages 1 month - 18 years)</t>
+  </si>
+  <si>
+    <t>Adult (18+ years)</t>
+  </si>
+  <si>
+    <t>Adult (mean 36.2 years)</t>
+  </si>
+  <si>
+    <t>Pediatric (ages 0-18 years)</t>
+  </si>
+  <si>
+    <t>Adult (median 46 years)</t>
+  </si>
+  <si>
+    <t>Pediatric (median 8.1 years)</t>
+  </si>
+  <si>
+    <t>Pediatric (ages 6–17 years)</t>
+  </si>
+  <si>
+    <t>Pediatric (mean age 4.4 years)</t>
+  </si>
+  <si>
+    <t>Mixed (young-onset &lt; 45 years; late-onset ≥ 45 years)</t>
+  </si>
+  <si>
+    <t>Adult (median age 50 years)</t>
+  </si>
+  <si>
+    <t>Adult (median age 28 years)</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Healthcare Cost and Utilization Project (HCUP) National Inpatient Sample (NIS), 2016</t>
+  </si>
+  <si>
+    <t>Laboratory test records from Guizhou KingMed Diagnostics Group</t>
+  </si>
+  <si>
+    <t>Hospital records and questionnaires</t>
+  </si>
+  <si>
+    <t>Hospital medical records</t>
+  </si>
+  <si>
+    <t>Hospital discharge records and medical records from two health systems</t>
+  </si>
+  <si>
+    <t>Hospital neuropsychological records</t>
+  </si>
+  <si>
+    <t>Nationwide Inpatient Sample (NIS) database</t>
+  </si>
+  <si>
+    <t>Hospital billing and electronic medical records</t>
+  </si>
+  <si>
+    <t>Patient-reported questionnaires</t>
+  </si>
+  <si>
+    <t>Diagnosis based on ICD-10 coding for anti-NMDAR encephalitis</t>
+  </si>
+  <si>
+    <t>Based on published AE diagnostic criteria</t>
+  </si>
+  <si>
+    <t>IEC 2013 criteria</t>
+  </si>
+  <si>
+    <t>Probable antibody-negative AE classification based on clinical features, neuroinflammation markers, and absence of autoantibodies</t>
+  </si>
+  <si>
+    <t>Pediatric AE classification including definite, probable, and possible AE categories</t>
+  </si>
+  <si>
+    <t>NSAE diagnosis based on antibody presence and clinical criteria</t>
+  </si>
+  <si>
+    <t>Antibody-positive AE was confirmed through CSF or serum antibody testing</t>
+  </si>
+  <si>
+    <t>Autoimmune encephalitis (AE)</t>
+  </si>
+  <si>
+    <t>Encephalitis (autoimmune, infectious, unknown etiologies)</t>
+  </si>
+  <si>
+    <t>Autoimmune encephalitis (AE) and seizure outcomes</t>
+  </si>
+  <si>
+    <t>Anti-NMDAR encephalitis and psychosis outcomes</t>
+  </si>
+  <si>
+    <t>Autoimmune encephalitis (AE) and infectious encephalitis</t>
+  </si>
+  <si>
+    <t>Autoimmune encephalitis (AE) subtypes and age-related differences</t>
+  </si>
+  <si>
+    <t>Autoimmune encephalitis (AE) and its financial burden</t>
+  </si>
+  <si>
+    <t>Long-term outcomes and quality of life in anti-NMDAR encephalitis (NMDARE)</t>
+  </si>
+  <si>
+    <t>Acute or subacute</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>Chronic (long-term follow-up)</t>
+  </si>
+  <si>
+    <t>41.8%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>49.7%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>65.2%</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>45.8%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>38.1%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>Median 30 months (IQR 19, 42)</t>
+  </si>
+  <si>
+    <t>Mean 23 months (range: 2–72 months)</t>
+  </si>
+  <si>
+    <t>Mean 18.5 months (range: 9–32 months)</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>Median 5.0 years (IQR 3.5-6.7)</t>
+  </si>
+  <si>
+    <t>Median 34.5 months</t>
+  </si>
+  <si>
+    <t>Median 62.5 months</t>
+  </si>
+  <si>
+    <t>Median 78 months (range 26–162 months)</t>
+  </si>
+  <si>
+    <t>Total patients: 50</t>
+  </si>
+  <si>
+    <t>263 patients with suspected AE, 26 antibody-positive cases</t>
+  </si>
+  <si>
+    <t>208 patients</t>
+  </si>
+  <si>
+    <t>19 patients</t>
+  </si>
+  <si>
+    <t>113 patients with autoimmune encephalitis</t>
+  </si>
+  <si>
+    <t>17 patients</t>
+  </si>
+  <si>
+    <t>23 patients</t>
+  </si>
+  <si>
+    <t>84 patients</t>
+  </si>
+  <si>
+    <t>18 patients</t>
+  </si>
+  <si>
+    <t>3,405 patients</t>
+  </si>
+  <si>
+    <t>29 patients</t>
+  </si>
+  <si>
+    <t>134 patients</t>
+  </si>
+  <si>
+    <t>63 patients</t>
+  </si>
+  <si>
+    <t>22 patients</t>
+  </si>
+  <si>
+    <t>1 patient</t>
+  </si>
+  <si>
+    <t>8 patients</t>
+  </si>
+  <si>
+    <t>7 patients</t>
+  </si>
+  <si>
+    <t>4 patients</t>
+  </si>
+  <si>
+    <t>2 patients</t>
+  </si>
+  <si>
+    <t>26 patients</t>
+  </si>
+  <si>
+    <t>6 patients</t>
+  </si>
+  <si>
+    <t>5 patients</t>
+  </si>
+  <si>
+    <t>27 patients</t>
+  </si>
+  <si>
+    <t>12 patients</t>
+  </si>
+  <si>
+    <t>155 patients</t>
+  </si>
+  <si>
+    <t>32 patients</t>
+  </si>
+  <si>
+    <t>81 patients</t>
+  </si>
+  <si>
+    <t>13 patients</t>
+  </si>
+  <si>
+    <t>31 patients</t>
+  </si>
+  <si>
+    <t>113 patients</t>
+  </si>
+  <si>
+    <t>11 patients</t>
+  </si>
+  <si>
+    <t>10 patients</t>
+  </si>
+  <si>
+    <t>272 patients</t>
+  </si>
+  <si>
+    <t>249 patients</t>
+  </si>
+  <si>
+    <t>Mean age of all dermoid tumor patients: 45.5 ± 18.0 years; Mean age of patients with anti-NMDAR encephalitis: 27.4 ± 4.9 years</t>
+  </si>
+  <si>
+    <t>Mixed age and sex distribution</t>
+  </si>
+  <si>
+    <t>Mixed age and sex distribution, including comorbidities such as tumors</t>
+  </si>
+  <si>
+    <t>Pediatric cohort (median age: 7 years, 58% female)</t>
+  </si>
+  <si>
+    <t>Median age 49 years, mixed gender, with autoimmune and infectious encephalitis cases</t>
+  </si>
+  <si>
+    <t>Median age 36.2 years, 88% Caucasian, mixed gender</t>
+  </si>
+  <si>
+    <t>Median age at diagnosis 8.8 years, 65.2% female</t>
+  </si>
+  <si>
+    <t>Median age 46 years, 58.33% male</t>
+  </si>
+  <si>
+    <t>Median age 8.1 years, 67% male</t>
+  </si>
+  <si>
+    <t>Mean age 11.1 years, 54.2% male, 50.7% White</t>
+  </si>
+  <si>
+    <t>Mean age 4.4 years, 54% male</t>
+  </si>
+  <si>
+    <t>Median age 40.5 years, 61.9% male</t>
+  </si>
+  <si>
+    <t>Median age 50 years, 49% antibody-positive, 52% female</t>
+  </si>
+  <si>
+    <t>Median age 28 years, 86% female</t>
+  </si>
+  <si>
+    <t>Patients diagnosed with ovarian dermoid tumors, with or without anti-NMDAR encephalitis</t>
+  </si>
+  <si>
+    <t>Patients with suspected autoimmune encephalitis</t>
+  </si>
+  <si>
+    <t>Patients with antibody-positive autoimmune encephalitis (anti-NMDAR, anti-GABABR, anti-LGI1, and anti-CASPR2)</t>
+  </si>
+  <si>
+    <t>Children diagnosed with anti-NMDAR encephalitis (aged 1 month - 18 years)</t>
+  </si>
+  <si>
+    <t>Adults diagnosed with encephalitis (ICD-9 criteria)</t>
+  </si>
+  <si>
+    <t>Patients diagnosed with autoimmune encephalitis (AE)</t>
+  </si>
+  <si>
+    <t>Pediatric patients diagnosed with anti-NMDAR encephalitis</t>
+  </si>
+  <si>
+    <t>Patients with autoimmune encephalitis (AE)</t>
+  </si>
+  <si>
+    <t>Pediatric patients diagnosed with autoimmune encephalitis (AE)</t>
+  </si>
+  <si>
+    <t>Pediatric inpatients diagnosed with anti-NMDAR encephalitis (ages 6–17 years)</t>
+  </si>
+  <si>
+    <t>Patients with neuronal surface antibody-mediated autoimmune encephalitis (NSAE)</t>
+  </si>
+  <si>
+    <t>Adult inpatients diagnosed with autoimmune encephalitis (AE)</t>
+  </si>
+  <si>
+    <t>Adults diagnosed with anti-NMDAR encephalitis (NMDARE)</t>
+  </si>
+  <si>
+    <t>White, Black, Hispanic, Asian</t>
+  </si>
+  <si>
+    <t>Majority White (46.3%), African American (25.3%), Hispanic (15.3%)</t>
+  </si>
+  <si>
+    <t>88% Caucasian</t>
+  </si>
+  <si>
+    <t>47.8% Latinx, 39.1% Black, 8.7% White, 4.3% Asian</t>
+  </si>
+  <si>
+    <t>50.7% White, 13.6% Black, 23.3% Hispanic, 12.4% Other</t>
+  </si>
+  <si>
+    <t>Retrospective</t>
+  </si>
+  <si>
+    <t>Mixed (Retrospective for patients diagnosed before 2016, Prospective after 2016)</t>
+  </si>
+  <si>
+    <t>Cross-sectional (survey-based)</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Six medical centers in Guizhou Province</t>
+  </si>
+  <si>
+    <t>Single center (West China Medical Center)</t>
+  </si>
+  <si>
+    <t>Single center (Queen Sirikit National Institute of Child Health, Bangkok)</t>
+  </si>
+  <si>
+    <t>Four centers (two in Texas, two in Maryland)</t>
+  </si>
+  <si>
+    <t>Single center (Hospital de Clínicas de Porto Alegre)</t>
+  </si>
+  <si>
+    <t>Two centers (Dallas &amp; Atlanta)</t>
+  </si>
+  <si>
+    <t>Single center (General Hospital of Ningxia Medical University)</t>
+  </si>
+  <si>
+    <t>Single center (Osaka City General Hospital)</t>
+  </si>
+  <si>
+    <t>Nationwide (U.S. hospitals in the NIS database)</t>
+  </si>
+  <si>
+    <t>Single center (IRCCS Istituto Giannina Gaslini)</t>
+  </si>
+  <si>
+    <t>Three centers in Zhejiang, China</t>
+  </si>
+  <si>
+    <t>Two centers (Johns Hopkins Hospital and Johns Hopkins Bayview Medical Center)</t>
+  </si>
+  <si>
+    <t>National survey (Japan)</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Single region (Guizhou Province, China)</t>
+  </si>
+  <si>
+    <t>Single region (Western China)</t>
+  </si>
+  <si>
+    <t>Single hospital study (Queen Sirikit National Institute of Child Health, Bangkok)</t>
+  </si>
+  <si>
+    <t>Multi-center study (Houston, Texas &amp; Baltimore, Maryland)</t>
+  </si>
+  <si>
+    <t>Single center (Hospital de Clínicas de Porto Alegre, Brazil)</t>
+  </si>
+  <si>
+    <t>Multi-center study (Dallas, Texas &amp; Atlanta, Georgia)</t>
+  </si>
+  <si>
+    <t>Single hospital study (General Hospital of Ningxia Medical University, Yinchuan)</t>
+  </si>
+  <si>
+    <t>Single-center study (Osaka City General Hospital, Japan)</t>
+  </si>
+  <si>
+    <t>Nationwide inpatient sample (U.S.)</t>
+  </si>
+  <si>
+    <t>Single-center study (Genoa, Italy)</t>
+  </si>
+  <si>
+    <t>Multi-center study (three hospitals in Zhejiang province, China)</t>
+  </si>
+  <si>
+    <t>Single institution study (Johns Hopkins Hospital and Johns Hopkins Bayview Medical Center, Baltimore, MD)</t>
+  </si>
+  <si>
+    <t>Nationwide patient association cohort (Japan)</t>
+  </si>
+  <si>
+    <t>Retrospective cohort study</t>
+  </si>
+  <si>
+    <t>Retrospective observational study</t>
+  </si>
+  <si>
+    <t>Retrospective cost-of-illness study</t>
+  </si>
+  <si>
+    <t>Observational cohort study (Retrospective &amp; Prospective)</t>
+  </si>
+  <si>
+    <t>Retrospective cohort study with external validation</t>
+  </si>
+  <si>
+    <t>Retrospective case series analysis</t>
+  </si>
+  <si>
+    <t>Retrospective chart review</t>
+  </si>
+  <si>
+    <t>Cross-sectional study</t>
+  </si>
+  <si>
+    <t>Cross-sectional survey-based study</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>June 2020 – June 2021</t>
+  </si>
+  <si>
+    <t>June 2012 – December 2018</t>
+  </si>
+  <si>
+    <t>January 2011 – June 2017</t>
+  </si>
+  <si>
+    <t>2005–2023 (Texas), 2006–2022 (Maryland)</t>
+  </si>
+  <si>
+    <t>2014–2022</t>
+  </si>
+  <si>
+    <t>2013–2018</t>
+  </si>
+  <si>
+    <t>January 2015 – January 2023</t>
+  </si>
+  <si>
+    <t>January 2015 – March 2023</t>
+  </si>
+  <si>
+    <t>2018–2019</t>
+  </si>
+  <si>
+    <t>January 2008 – June 2021</t>
+  </si>
+  <si>
+    <t>July 2014 – August 2020</t>
+  </si>
+  <si>
+    <t>July 2005 – June 2015</t>
+  </si>
+  <si>
+    <t>Survey conducted in July 2022</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1040</t>
   </si>
 </sst>
 </file>
@@ -377,18 +1478,1657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:CS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:97">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>332</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>249</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>246</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>261</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>305</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>319</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>333</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>342</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:97">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" t="s">
+        <v>112</v>
+      </c>
+      <c r="W4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>262</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>276</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>296</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>306</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>320</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>334</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>343</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:97">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>263</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>277</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>293</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>297</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>307</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>321</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>335</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>344</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:97">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>259</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>264</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>278</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>288</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>308</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>322</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>345</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:97">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>265</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>279</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>289</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>303</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>309</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>323</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>337</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>346</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:97">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>232</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>266</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>280</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>290</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>310</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>324</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>338</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>347</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:97">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="U9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>247</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>251</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>241</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>267</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>281</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>311</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>325</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>332</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>348</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:97">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>234</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>253</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>253</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>312</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>326</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>332</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>349</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:97">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>235</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>269</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>291</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>313</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>327</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>339</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>350</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>257</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>246</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>253</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>270</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>299</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>304</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>314</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>328</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>332</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>351</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:97">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>252</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>271</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>284</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>315</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>329</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>332</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>352</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:97">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>251</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>254</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>272</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>285</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>300</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>316</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>330</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>332</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>353</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:97">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>239</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>239</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>273</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>286</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>294</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>299</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>331</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>340</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>354</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/DS_Projects/semiauto-epi-data-extraction-pipeline/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D3CAB6-AD11-2D49-AC22-05CED36F62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -706,8 +712,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +722,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -759,24 +772,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -814,7 +836,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -848,6 +870,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -882,9 +905,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1057,14 +1081,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="102" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="99.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="89.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="84.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="45.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,955 +1183,955 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N15" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="2" t="s">
         <v>228</v>
       </c>
     </row>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/DS_Projects/semiauto-epi-data-extraction-pipeline/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D3CAB6-AD11-2D49-AC22-05CED36F62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E3211-F6D8-2844-8F20-D0DC5BAC677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1084,33 +1084,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="146.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="102" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="99.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="89.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="63.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="84.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="161.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="97.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="68.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="91.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="8.83203125" style="2"/>
   </cols>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/DS_Projects/semiauto-epi-data-extraction-pipeline/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E3211-F6D8-2844-8F20-D0DC5BAC677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F998F4-E924-1049-A572-5F24DF0A5D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/DS_Projects/semiauto-epi-data-extraction-pipeline/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC5F5F9-2485-AC4A-9BC1-222080FFED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F6214-D93E-F645-B0E0-281595C1B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,10 @@
     <t>Retrospective cohort study</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>December 31, 2011</t>
+  </si>
+  <si>
+    <t>December 31, 2019</t>
   </si>
   <si>
     <t>Patients with genetically confirmed CMS</t>
@@ -259,10 +259,10 @@
     <t>Patients referred for neuromuscular disorders</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1999</t>
+    <t>January 1, 2010</t>
+  </si>
+  <si>
+    <t>January 1, 1999</t>
   </si>
   <si>
     <t>Retrospective</t>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,9 +673,9 @@
     <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/DS_Projects/semiauto-epi-data-extraction-pipeline/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F6214-D93E-F645-B0E0-281595C1B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4AAC8-4A80-D749-A464-05C33E60C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,90 +20,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>article title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>publication year</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>coverage area</t>
+  </si>
+  <si>
+    <t>study design</t>
+  </si>
+  <si>
+    <t>study population</t>
+  </si>
+  <si>
+    <t>population characteristics</t>
+  </si>
+  <si>
+    <t>data source type</t>
+  </si>
+  <si>
+    <t>data source details</t>
+  </si>
+  <si>
+    <t>study timeline type</t>
+  </si>
+  <si>
+    <t>number of sites</t>
+  </si>
+  <si>
+    <t>study start year</t>
+  </si>
+  <si>
+    <t>study end year</t>
+  </si>
+  <si>
+    <t>study period (days)</t>
+  </si>
+  <si>
+    <t>study period (years)</t>
+  </si>
+  <si>
+    <t>main ethnicity</t>
+  </si>
+  <si>
+    <t>ethnicity details</t>
+  </si>
+  <si>
+    <t>disease studied</t>
+  </si>
+  <si>
+    <t>diagnosis method</t>
+  </si>
+  <si>
+    <t>diagnosis criteria details</t>
+  </si>
+  <si>
+    <t>disease phase</t>
   </si>
   <si>
     <t>cohort age group</t>
   </si>
   <si>
+    <t>female  in cohort</t>
+  </si>
+  <si>
     <t>consanguinity</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>coverage area</t>
-  </si>
-  <si>
-    <t>data source details</t>
-  </si>
-  <si>
-    <t>data source type</t>
-  </si>
-  <si>
-    <t>diagnosis criteria details</t>
-  </si>
-  <si>
-    <t>diagnosis method</t>
-  </si>
-  <si>
-    <t>disease phase</t>
-  </si>
-  <si>
-    <t>disease studied</t>
-  </si>
-  <si>
-    <t>ethnicity details</t>
-  </si>
-  <si>
-    <t>female  in cohort</t>
-  </si>
-  <si>
-    <t>main ethnicity</t>
-  </si>
-  <si>
-    <t>number of sites</t>
-  </si>
-  <si>
-    <t>population characteristics</t>
-  </si>
-  <si>
-    <t>publication year</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>study design</t>
-  </si>
-  <si>
-    <t>study end year</t>
-  </si>
-  <si>
-    <t>study population</t>
-  </si>
-  <si>
-    <t>study start year</t>
-  </si>
-  <si>
-    <t>study timeline type</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Clinical and genetic features of congenital myasthenic syndromes in Hungary</t>
-  </si>
-  <si>
-    <t>Clinical Characteristics of Pediatric Myasthenia: A Surveillance Study</t>
-  </si>
-  <si>
-    <t>A 20-year Clinical and Genetic Neuromuscular Cohort Analysis in Lebanon: An International Effort</t>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Retrospective case series</t>
+  </si>
+  <si>
+    <t>Active national surveillance study</t>
+  </si>
+  <si>
+    <t>Retrospective cohort study</t>
+  </si>
+  <si>
+    <t>Patients with genetically confirmed CMS</t>
+  </si>
+  <si>
+    <t>Pediatric patients with myasthenia</t>
+  </si>
+  <si>
+    <t>Patients referred for neuromuscular disorders</t>
+  </si>
+  <si>
+    <t>Age, sex distribution, ethnic background (Roma, Hungarian)</t>
+  </si>
+  <si>
+    <t>506 patients; 57.5% male, 42.5% female; age 0–60 years; pediatric predominant</t>
+  </si>
+  <si>
+    <t>Clinical data and genetic testing</t>
+  </si>
+  <si>
+    <t>Registry/Surveillance reporting</t>
+  </si>
+  <si>
+    <t>Clinical data and genetic lab data</t>
+  </si>
+  <si>
+    <t>Medical records, molecular genetic lab data from multiple genes</t>
+  </si>
+  <si>
+    <t>Canadian Pediatric Surveillance Program (CPSP) using physician reports and questionnaires</t>
+  </si>
+  <si>
+    <t>Clinical referrals from hospitals; testing by local and international genetic labs</t>
+  </si>
+  <si>
+    <t>Retrospective</t>
+  </si>
+  <si>
+    <t>Prospective</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>January 1, 2010</t>
+  </si>
+  <si>
+    <t>January 1, 1999</t>
+  </si>
+  <si>
+    <t>December 31, 2011</t>
+  </si>
+  <si>
+    <t>December 31, 2019</t>
+  </si>
+  <si>
+    <t>Roma and Hungarian</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>10 Roma, 6 Hungarian (inferred)</t>
+  </si>
+  <si>
+    <t>White: 59% (generalized), 28% (ocular); Asian: 6% (generalized), 44% (ocular)”</t>
+  </si>
+  <si>
+    <t>Congenital Myasthenic Syndromes (CMS)</t>
+  </si>
+  <si>
+    <t>Juvenile Myasthenia Gravis (JMG), Congenital Myasthenic Syndromes (CMS)</t>
+  </si>
+  <si>
+    <t>Neuromuscular disorders (NMDs), including subtypes like SMA, DMD, BMD, LGMD, CMT</t>
+  </si>
+  <si>
+    <t>Clinical presentation and genetic testing</t>
+  </si>
+  <si>
+    <t>Clinical criteria plus supportive diagnostic testing</t>
+  </si>
+  <si>
+    <t>Clinical and molecular (e.g., sequencing, PCR, MLPA)</t>
+  </si>
+  <si>
+    <t>Genetic confirmation in various CMS genes (CHRNE, RAPSN, DOK7)</t>
+  </si>
+  <si>
+    <t>Clinical symptoms plus one or more of: AChR/MuSK antibodies, Tensilon response, abnormal EMG</t>
+  </si>
+  <si>
+    <t>Clinical phenotype and genetic confirmation per ACMG guidelines</t>
+  </si>
+  <si>
+    <t>Chronic (inferred)</t>
+  </si>
+  <si>
+    <t>NR (mixed acute and chronic implied)</t>
   </si>
   <si>
     <t>Mixed (Pediatric and Adult)</t>
@@ -115,169 +247,13 @@
     <t>Mixed (predominantly pediatric)</t>
   </si>
   <si>
-    <t>NR</t>
+    <t>Generalized: 53%, Ocular: 72%</t>
+  </si>
+  <si>
+    <t>42.5%</t>
   </si>
   <si>
     <t>Not directly reported; population has high consanguinity (28.4–35.5%)</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Medical records, molecular genetic lab data from multiple genes</t>
-  </si>
-  <si>
-    <t>Canadian Pediatric Surveillance Program (CPSP) using physician reports and questionnaires</t>
-  </si>
-  <si>
-    <t>Clinical referrals from hospitals; testing by local and international genetic labs</t>
-  </si>
-  <si>
-    <t>Clinical data and genetic testing</t>
-  </si>
-  <si>
-    <t>Registry/Surveillance reporting</t>
-  </si>
-  <si>
-    <t>Clinical data and genetic lab data</t>
-  </si>
-  <si>
-    <t>Genetic confirmation in various CMS genes (CHRNE, RAPSN, DOK7)</t>
-  </si>
-  <si>
-    <t>Clinical symptoms plus one or more of: AChR/MuSK antibodies, Tensilon response, abnormal EMG</t>
-  </si>
-  <si>
-    <t>Clinical phenotype and genetic confirmation per ACMG guidelines</t>
-  </si>
-  <si>
-    <t>Clinical presentation and genetic testing</t>
-  </si>
-  <si>
-    <t>Clinical criteria plus supportive diagnostic testing</t>
-  </si>
-  <si>
-    <t>Clinical and molecular (e.g., sequencing, PCR, MLPA)</t>
-  </si>
-  <si>
-    <t>Chronic (inferred)</t>
-  </si>
-  <si>
-    <t>NR (mixed acute and chronic implied)</t>
-  </si>
-  <si>
-    <t>Congenital Myasthenic Syndromes (CMS)</t>
-  </si>
-  <si>
-    <t>Juvenile Myasthenia Gravis (JMG), Congenital Myasthenic Syndromes (CMS)</t>
-  </si>
-  <si>
-    <t>Neuromuscular disorders (NMDs), including subtypes like SMA, DMD, BMD, LGMD, CMT</t>
-  </si>
-  <si>
-    <t>10 Roma, 6 Hungarian (inferred)</t>
-  </si>
-  <si>
-    <t>White: 59% (generalized), 28% (ocular); Asian: 6% (generalized), 44% (ocular)”</t>
-  </si>
-  <si>
-    <t>Generalized: 53%, Ocular: 72%</t>
-  </si>
-  <si>
-    <t>42.5%</t>
-  </si>
-  <si>
-    <t>Roma and Hungarian</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>One primary national center</t>
-  </si>
-  <si>
-    <t>Multiple; reports from 5 provinces</t>
-  </si>
-  <si>
-    <t>Multiple (across Lebanese hospitals and clinics)</t>
-  </si>
-  <si>
-    <t>Age, sex distribution, ethnic background (Roma, Hungarian)</t>
-  </si>
-  <si>
-    <t>506 patients; 57.5% male, 42.5% female; age 0–60 years; pediatric predominant</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
-    <t>Retrospective case series</t>
-  </si>
-  <si>
-    <t>Active national surveillance study</t>
-  </si>
-  <si>
-    <t>Retrospective cohort study</t>
-  </si>
-  <si>
-    <t>December 31, 2011</t>
-  </si>
-  <si>
-    <t>December 31, 2019</t>
-  </si>
-  <si>
-    <t>Patients with genetically confirmed CMS</t>
-  </si>
-  <si>
-    <t>Pediatric patients with myasthenia</t>
-  </si>
-  <si>
-    <t>Patients referred for neuromuscular disorders</t>
-  </si>
-  <si>
-    <t>January 1, 2010</t>
-  </si>
-  <si>
-    <t>January 1, 1999</t>
-  </si>
-  <si>
-    <t>Retrospective</t>
-  </si>
-  <si>
-    <t>Prospective</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
   </si>
 </sst>
 </file>
@@ -645,42 +621,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="76.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="54.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,233 +733,209 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>2009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K4" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
         <v>63</v>
       </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
         <v>71</v>
       </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
         <v>76</v>
       </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="Z4" t="s">
         <v>77</v>
-      </c>
-      <c r="W3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/DS_Projects/semiauto-epi-data-extraction-pipeline/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4AAC8-4A80-D749-A464-05C33E60C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -259,8 +253,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,21 +317,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +361,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -409,7 +395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -444,10 +429,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,44 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="76.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="54.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -805,7 +759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -870,7 +824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>28</v>
       </c>
